--- a/10_Delete_Edit_Calculated_Fields_Working.xlsx
+++ b/10_Delete_Edit_Calculated_Fields_Working.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\YT_Excel_Pivot_Table_Playground\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD307537-10A5-4283-8624-B9DEB0B8B7AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA07F8D8-B770-4C1E-BF42-C7D294460ED4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concepts" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="17" r:id="rId5"/>
   </pivotCaches>
   <webPublishing codePage="1252"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="49">
   <si>
     <t xml:space="preserve">Questions to be answered: </t>
   </si>
@@ -103,51 +103,21 @@
     <t>www.xyz.com</t>
   </si>
   <si>
-    <t>1/ Find the Conversion per Month by Domain</t>
-  </si>
-  <si>
-    <t>3/ List Formulas</t>
-  </si>
-  <si>
-    <t>2/ Calculating right the right average</t>
-  </si>
-  <si>
-    <t>2/ Find the Conversion per Year by Domain</t>
-  </si>
-  <si>
-    <t>Case 1</t>
-  </si>
-  <si>
-    <t>Case 2</t>
-  </si>
-  <si>
     <t>Row Labels</t>
   </si>
   <si>
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Sum of Conv%</t>
-  </si>
-  <si>
     <t>Column Labels</t>
   </si>
   <si>
-    <t>Wrong</t>
-  </si>
-  <si>
-    <t>Right</t>
-  </si>
-  <si>
     <t>Sum of Website_Visits</t>
   </si>
   <si>
     <t>Total Sum of Website_Visits</t>
   </si>
   <si>
-    <t>Total Sum of Conv%</t>
-  </si>
-  <si>
     <t>Calculated Field</t>
   </si>
   <si>
@@ -185,6 +155,33 @@
   </si>
   <si>
     <t>on the Options tab, in the Calculations group, click Fields, Items, &amp; Sets, and then click Solve Order.</t>
+  </si>
+  <si>
+    <t>Leads</t>
+  </si>
+  <si>
+    <t>2/ Editing Calculated Fields</t>
+  </si>
+  <si>
+    <t>3/ Deleting Calculated Fields</t>
+  </si>
+  <si>
+    <t>1/ Find the Leads/Visits Percentage</t>
+  </si>
+  <si>
+    <t>2/ Find the Conversion/Leads Percentage</t>
+  </si>
+  <si>
+    <t>Total Leads%</t>
+  </si>
+  <si>
+    <t>Leads%</t>
+  </si>
+  <si>
+    <t>Total  Conv%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Conv%</t>
   </si>
 </sst>
 </file>
@@ -333,7 +330,7 @@
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -348,7 +345,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -369,7 +365,92 @@
     <cellStyle name="Normal_adjustable bins" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="27">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <u val="none"/>
@@ -480,11 +561,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kunaal Naik" refreshedDate="43939.620936805557" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="24" xr:uid="{B4046F54-4630-4189-A149-7FABCC98D046}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Kunaal Naik" refreshedDate="43972.805420254626" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="24" xr:uid="{B4046F54-4630-4189-A149-7FABCC98D046}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table13"/>
   </cacheSource>
-  <cacheFields count="5">
+  <cacheFields count="7">
     <cacheField name="Domain" numFmtId="0">
       <sharedItems count="2">
         <s v="www.abc.com"/>
@@ -510,10 +591,14 @@
     <cacheField name="Website_Visits" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="20060" maxValue="26043"/>
     </cacheField>
+    <cacheField name="Leads" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="7422.2" maxValue="19757.400000000001"/>
+    </cacheField>
     <cacheField name="Conversion" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="70" maxValue="709"/>
     </cacheField>
     <cacheField name="Conv%" numFmtId="0" formula="Conversion/Website_Visits" databaseField="0"/>
+    <cacheField name="Leads_Percentage" numFmtId="0" formula="56/Website_Visits" databaseField="0"/>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -529,153 +614,177 @@
     <x v="0"/>
     <x v="0"/>
     <n v="23075"/>
+    <n v="8537.75"/>
     <n v="243"/>
   </r>
   <r>
     <x v="0"/>
     <x v="1"/>
     <n v="24194"/>
+    <n v="13064.76"/>
     <n v="82"/>
   </r>
   <r>
     <x v="0"/>
     <x v="2"/>
     <n v="24674"/>
+    <n v="9129.3799999999992"/>
     <n v="76"/>
   </r>
   <r>
     <x v="0"/>
     <x v="3"/>
     <n v="22122"/>
+    <n v="15264.179999999998"/>
     <n v="74"/>
   </r>
   <r>
     <x v="0"/>
     <x v="4"/>
     <n v="25061"/>
+    <n v="11277.45"/>
     <n v="159"/>
   </r>
   <r>
     <x v="0"/>
     <x v="5"/>
     <n v="24300"/>
+    <n v="11178"/>
     <n v="97"/>
   </r>
   <r>
     <x v="0"/>
     <x v="6"/>
     <n v="25810"/>
+    <n v="18841.3"/>
     <n v="177"/>
   </r>
   <r>
     <x v="0"/>
     <x v="7"/>
     <n v="23705"/>
+    <n v="18015.8"/>
     <n v="90"/>
   </r>
   <r>
     <x v="0"/>
     <x v="8"/>
     <n v="25829"/>
+    <n v="16530.560000000001"/>
     <n v="562"/>
   </r>
   <r>
     <x v="0"/>
     <x v="9"/>
     <n v="24440"/>
+    <n v="12708.800000000001"/>
     <n v="97"/>
   </r>
   <r>
     <x v="0"/>
     <x v="10"/>
     <n v="25378"/>
+    <n v="14465.46"/>
     <n v="709"/>
   </r>
   <r>
     <x v="0"/>
     <x v="11"/>
     <n v="25925"/>
+    <n v="17369.75"/>
     <n v="183"/>
   </r>
   <r>
     <x v="1"/>
     <x v="0"/>
     <n v="20060"/>
+    <n v="7422.2"/>
     <n v="106"/>
   </r>
   <r>
     <x v="1"/>
     <x v="1"/>
     <n v="23875"/>
+    <n v="11937.5"/>
     <n v="271"/>
   </r>
   <r>
     <x v="1"/>
     <x v="2"/>
     <n v="24907"/>
+    <n v="13449.78"/>
     <n v="101"/>
   </r>
   <r>
     <x v="1"/>
     <x v="3"/>
     <n v="22855"/>
+    <n v="8456.35"/>
     <n v="75"/>
   </r>
   <r>
     <x v="1"/>
     <x v="4"/>
     <n v="25330"/>
+    <n v="19757.400000000001"/>
     <n v="236"/>
   </r>
   <r>
     <x v="1"/>
     <x v="5"/>
     <n v="24813"/>
+    <n v="13895.28"/>
     <n v="169"/>
   </r>
   <r>
     <x v="1"/>
     <x v="6"/>
     <n v="21220"/>
+    <n v="8700.1999999999989"/>
     <n v="70"/>
   </r>
   <r>
     <x v="1"/>
     <x v="7"/>
     <n v="23197"/>
+    <n v="9510.7699999999986"/>
     <n v="115"/>
   </r>
   <r>
     <x v="1"/>
     <x v="8"/>
     <n v="26043"/>
+    <n v="8333.76"/>
     <n v="85"/>
   </r>
   <r>
     <x v="1"/>
     <x v="9"/>
     <n v="22728"/>
+    <n v="12045.84"/>
     <n v="264"/>
   </r>
   <r>
     <x v="1"/>
     <x v="10"/>
     <n v="24024"/>
+    <n v="15615.6"/>
     <n v="112"/>
   </r>
   <r>
     <x v="1"/>
     <x v="11"/>
     <n v="23255"/>
+    <n v="7674.1500000000005"/>
     <n v="468"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E6DC8BCA-6427-4DEE-AF70-453045109EC5}" name="PivotTable4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:G18" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
-  <pivotFields count="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E6DC8BCA-6427-4DEE-AF70-453045109EC5}" name="PivotTable4" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:J18" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="7">
     <pivotField axis="axisCol" showAll="0">
       <items count="3">
         <item x="0"/>
@@ -701,7 +810,9 @@
       </items>
     </pivotField>
     <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
     <pivotField dataField="1" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
   <rowFields count="1">
@@ -752,13 +863,16 @@
     <field x="0"/>
     <field x="-2"/>
   </colFields>
-  <colItems count="6">
+  <colItems count="9">
     <i>
       <x/>
       <x/>
     </i>
     <i r="1" i="1">
       <x v="1"/>
+    </i>
+    <i r="1" i="2">
+      <x v="2"/>
     </i>
     <i>
       <x v="1"/>
@@ -767,17 +881,72 @@
     <i r="1" i="1">
       <x v="1"/>
     </i>
+    <i r="1" i="2">
+      <x v="2"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
     <i t="grand" i="1">
       <x/>
     </i>
+    <i t="grand" i="2">
+      <x/>
+    </i>
   </colItems>
-  <dataFields count="2">
+  <dataFields count="3">
     <dataField name="Sum of Website_Visits" fld="2" baseField="0" baseItem="0" numFmtId="3"/>
-    <dataField name="Sum of Conv%" fld="4" baseField="0" baseItem="0" numFmtId="10"/>
+    <dataField name=" Conv%" fld="5" baseField="0" baseItem="0" numFmtId="10"/>
+    <dataField name="Leads%" fld="6" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
+  <formats count="4">
+    <format dxfId="18">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="15">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea field="0" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea field="0" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -791,12 +960,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A1:D25" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowCellStyle="Normal_adjustable bins">
-  <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{24CED88D-B280-4CB4-98DF-460DDCF1111E}" name="Domain" dataDxfId="3"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Month" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Website_Visits" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{674EEC13-071C-486A-A25F-068CB8678396}" name="Conversion" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A1:E25" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" headerRowCellStyle="Normal_adjustable bins">
+  <tableColumns count="5">
+    <tableColumn id="4" xr3:uid="{24CED88D-B280-4CB4-98DF-460DDCF1111E}" name="Domain" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Month" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Website_Visits" dataDxfId="22" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{11ACF92B-0920-486B-AB91-4D0CCA659341}" name="Leads" dataDxfId="20" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{674EEC13-071C-486A-A25F-068CB8678396}" name="Conversion" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1122,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5577446-E0DE-4525-ACE7-9421F2773448}">
   <dimension ref="B1:D11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1135,16 +1305,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="2:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -1158,7 +1328,7 @@
     <row r="6" spans="2:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>16</v>
@@ -1166,15 +1336,15 @@
     </row>
     <row r="9" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" s="7" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1187,10 +1357,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1198,13 +1368,14 @@
     <col min="1" max="1" width="13.21875" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -1214,12 +1385,15 @@
       <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -1229,21 +1403,15 @@
       <c r="C2" s="9">
         <v>23075</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="9">
+        <v>8537.75</v>
+      </c>
+      <c r="E2" s="4">
         <v>243</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="13">
-        <v>8.5000000000000006E-3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -1253,22 +1421,15 @@
       <c r="C3" s="10">
         <v>24194</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="9">
+        <v>13064.76</v>
+      </c>
+      <c r="E3" s="4">
         <v>82</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="14">
-        <f>SUM(D2:D13)/SUM(C2:C13)</f>
-        <v>8.6549659947099105E-3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1278,12 +1439,15 @@
       <c r="C4" s="10">
         <v>24674</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="9">
+        <v>9129.3799999999992</v>
+      </c>
+      <c r="E4" s="4">
         <v>76</v>
       </c>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -1293,12 +1457,15 @@
       <c r="C5" s="9">
         <v>22122</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="9">
+        <v>15264.179999999998</v>
+      </c>
+      <c r="E5" s="4">
         <v>74</v>
       </c>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
@@ -1308,12 +1475,15 @@
       <c r="C6" s="10">
         <v>25061</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="9">
+        <v>11277.45</v>
+      </c>
+      <c r="E6" s="4">
         <v>159</v>
       </c>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -1323,12 +1493,15 @@
       <c r="C7" s="10">
         <v>24300</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="9">
+        <v>11178</v>
+      </c>
+      <c r="E7" s="4">
         <v>97</v>
       </c>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -1338,12 +1511,15 @@
       <c r="C8" s="9">
         <v>25810</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="9">
+        <v>18841.3</v>
+      </c>
+      <c r="E8" s="4">
         <v>177</v>
       </c>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1353,12 +1529,15 @@
       <c r="C9" s="10">
         <v>23705</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="9">
+        <v>18015.8</v>
+      </c>
+      <c r="E9" s="4">
         <v>90</v>
       </c>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -1368,12 +1547,15 @@
       <c r="C10" s="10">
         <v>25829</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="9">
+        <v>16530.560000000001</v>
+      </c>
+      <c r="E10" s="4">
         <v>562</v>
       </c>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -1383,12 +1565,15 @@
       <c r="C11" s="9">
         <v>24440</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="9">
+        <v>12708.800000000001</v>
+      </c>
+      <c r="E11" s="4">
         <v>97</v>
       </c>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
@@ -1398,12 +1583,15 @@
       <c r="C12" s="9">
         <v>25378</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="9">
+        <v>14465.46</v>
+      </c>
+      <c r="E12" s="4">
         <v>709</v>
       </c>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -1413,12 +1601,15 @@
       <c r="C13" s="10">
         <v>25925</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="9">
+        <v>17369.75</v>
+      </c>
+      <c r="E13" s="4">
         <v>183</v>
       </c>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
@@ -1428,12 +1619,15 @@
       <c r="C14" s="11">
         <v>20060</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="9">
+        <v>7422.2</v>
+      </c>
+      <c r="E14" s="4">
         <v>106</v>
       </c>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
@@ -1443,12 +1637,15 @@
       <c r="C15" s="11">
         <v>23875</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="9">
+        <v>11937.5</v>
+      </c>
+      <c r="E15" s="4">
         <v>271</v>
       </c>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
@@ -1458,12 +1655,15 @@
       <c r="C16" s="11">
         <v>24907</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="9">
+        <v>13449.78</v>
+      </c>
+      <c r="E16" s="4">
         <v>101</v>
       </c>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>21</v>
       </c>
@@ -1473,12 +1673,15 @@
       <c r="C17" s="11">
         <v>22855</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="9">
+        <v>8456.35</v>
+      </c>
+      <c r="E17" s="4">
         <v>75</v>
       </c>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -1488,12 +1691,15 @@
       <c r="C18" s="11">
         <v>25330</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="9">
+        <v>19757.400000000001</v>
+      </c>
+      <c r="E18" s="4">
         <v>236</v>
       </c>
-      <c r="E18" s="12"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
@@ -1503,12 +1709,15 @@
       <c r="C19" s="11">
         <v>24813</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="9">
+        <v>13895.28</v>
+      </c>
+      <c r="E19" s="4">
         <v>169</v>
       </c>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
@@ -1518,12 +1727,15 @@
       <c r="C20" s="11">
         <v>21220</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="9">
+        <v>8700.1999999999989</v>
+      </c>
+      <c r="E20" s="4">
         <v>70</v>
       </c>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
@@ -1533,12 +1745,15 @@
       <c r="C21" s="11">
         <v>23197</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="9">
+        <v>9510.7699999999986</v>
+      </c>
+      <c r="E21" s="4">
         <v>115</v>
       </c>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
@@ -1548,12 +1763,15 @@
       <c r="C22" s="11">
         <v>26043</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="9">
+        <v>8333.76</v>
+      </c>
+      <c r="E22" s="4">
         <v>85</v>
       </c>
-      <c r="E22" s="12"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -1563,12 +1781,15 @@
       <c r="C23" s="11">
         <v>22728</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="9">
+        <v>12045.84</v>
+      </c>
+      <c r="E23" s="4">
         <v>264</v>
       </c>
-      <c r="E23" s="12"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
@@ -1578,12 +1799,15 @@
       <c r="C24" s="11">
         <v>24024</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="9">
+        <v>15615.6</v>
+      </c>
+      <c r="E24" s="4">
         <v>112</v>
       </c>
-      <c r="E24" s="12"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>21</v>
       </c>
@@ -1593,10 +1817,13 @@
       <c r="C25" s="11">
         <v>23255</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="9">
+        <v>7674.1500000000005</v>
+      </c>
+      <c r="E25" s="4">
         <v>468</v>
       </c>
-      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1608,356 +1835,484 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C5CBF42-372F-4082-85F7-DA90BB5C0D5C}">
-  <dimension ref="A3:G18"/>
+  <dimension ref="A3:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>28</v>
+      <c r="H4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>22</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="16">
         <v>23075</v>
       </c>
       <c r="C6" s="13">
         <v>1.0530877573131094E-2</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="13">
+        <v>2.4268689057421453E-3</v>
+      </c>
+      <c r="E6" s="16">
         <v>20060</v>
       </c>
-      <c r="E6" s="13">
+      <c r="F6" s="13">
         <v>5.2841475573280157E-3</v>
       </c>
-      <c r="F6" s="17">
+      <c r="G6" s="13">
+        <v>2.7916251246261218E-3</v>
+      </c>
+      <c r="H6" s="16">
         <v>43135</v>
       </c>
-      <c r="G6" s="13">
+      <c r="I6" s="13">
         <v>8.090877477686333E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="J6" s="13">
+        <v>1.2982496812333371E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>24194</v>
       </c>
       <c r="C7" s="13">
         <v>3.38927006695875E-3</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="13">
+        <v>2.3146234603620731E-3</v>
+      </c>
+      <c r="E7" s="16">
         <v>23875</v>
       </c>
-      <c r="E7" s="13">
+      <c r="F7" s="13">
         <v>1.1350785340314137E-2</v>
       </c>
-      <c r="F7" s="17">
+      <c r="G7" s="13">
+        <v>2.3455497382198951E-3</v>
+      </c>
+      <c r="H7" s="16">
         <v>48069</v>
       </c>
-      <c r="G7" s="13">
+      <c r="I7" s="13">
         <v>7.3436102269654035E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="J7" s="13">
+        <v>1.164991990680064E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="16">
         <v>24674</v>
       </c>
       <c r="C8" s="13">
         <v>3.0801653562454404E-3</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="13">
+        <v>2.2695955256545352E-3</v>
+      </c>
+      <c r="E8" s="16">
         <v>24907</v>
       </c>
-      <c r="E8" s="13">
+      <c r="F8" s="13">
         <v>4.0550849158871001E-3</v>
       </c>
-      <c r="F8" s="17">
+      <c r="G8" s="13">
+        <v>2.248363913759184E-3</v>
+      </c>
+      <c r="H8" s="16">
         <v>49581</v>
       </c>
-      <c r="G8" s="13">
+      <c r="I8" s="13">
         <v>3.5699158952017911E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="J8" s="13">
+        <v>1.129464915996047E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="16">
         <v>22122</v>
       </c>
       <c r="C9" s="13">
         <v>3.345086339390652E-3</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="13">
+        <v>2.5314166892686013E-3</v>
+      </c>
+      <c r="E9" s="16">
         <v>22855</v>
       </c>
-      <c r="E9" s="13">
+      <c r="F9" s="13">
         <v>3.2815576460293152E-3</v>
       </c>
-      <c r="F9" s="17">
+      <c r="G9" s="13">
+        <v>2.450229709035222E-3</v>
+      </c>
+      <c r="H9" s="16">
         <v>44977</v>
       </c>
-      <c r="G9" s="13">
+      <c r="I9" s="13">
         <v>3.3128043222091291E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="J9" s="13">
+        <v>1.2450808190853102E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>25061</v>
       </c>
       <c r="C10" s="13">
         <v>6.3445193727305373E-3</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="13">
+        <v>2.2345477036032082E-3</v>
+      </c>
+      <c r="E10" s="16">
         <v>25330</v>
       </c>
-      <c r="E10" s="13">
+      <c r="F10" s="13">
         <v>9.3170153967627317E-3</v>
       </c>
-      <c r="F10" s="17">
+      <c r="G10" s="13">
+        <v>2.2108172127911566E-3</v>
+      </c>
+      <c r="H10" s="16">
         <v>50391</v>
       </c>
-      <c r="G10" s="13">
+      <c r="I10" s="13">
         <v>7.8387013554007661E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="J10" s="13">
+        <v>1.1113095592466908E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="16">
         <v>24300</v>
       </c>
       <c r="C11" s="13">
         <v>3.9917695473251028E-3</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="13">
+        <v>2.3045267489711935E-3</v>
+      </c>
+      <c r="E11" s="16">
         <v>24813</v>
       </c>
-      <c r="E11" s="13">
+      <c r="F11" s="13">
         <v>6.8109458751460924E-3</v>
       </c>
-      <c r="F11" s="17">
+      <c r="G11" s="13">
+        <v>2.2568814734211903E-3</v>
+      </c>
+      <c r="H11" s="16">
         <v>49113</v>
       </c>
-      <c r="G11" s="13">
+      <c r="I11" s="13">
         <v>5.4160812819416451E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="J11" s="13">
+        <v>1.1402276383035042E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>25810</v>
       </c>
       <c r="C12" s="13">
         <v>6.857807051530415E-3</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="13">
+        <v>2.169701666020922E-3</v>
+      </c>
+      <c r="E12" s="16">
         <v>21220</v>
       </c>
-      <c r="E12" s="13">
+      <c r="F12" s="13">
         <v>3.2987747408105561E-3</v>
       </c>
-      <c r="F12" s="17">
+      <c r="G12" s="13">
+        <v>2.639019792648445E-3</v>
+      </c>
+      <c r="H12" s="16">
         <v>47030</v>
       </c>
-      <c r="G12" s="13">
+      <c r="I12" s="13">
         <v>5.2519668296831809E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="J12" s="13">
+        <v>1.1907293217095472E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="16">
         <v>23705</v>
       </c>
       <c r="C13" s="13">
         <v>3.7966673697532164E-3</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="13">
+        <v>2.3623708078464459E-3</v>
+      </c>
+      <c r="E13" s="16">
         <v>23197</v>
       </c>
-      <c r="E13" s="13">
+      <c r="F13" s="13">
         <v>4.9575376126223215E-3</v>
       </c>
-      <c r="F13" s="17">
+      <c r="G13" s="13">
+        <v>2.4141052722334785E-3</v>
+      </c>
+      <c r="H13" s="16">
         <v>46902</v>
       </c>
-      <c r="G13" s="13">
+      <c r="I13" s="13">
         <v>4.3708157434650978E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="J13" s="13">
+        <v>1.1939789348002217E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="16">
         <v>25829</v>
       </c>
       <c r="C14" s="13">
         <v>2.1758488520655078E-2</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="13">
+        <v>2.1681056177165203E-3</v>
+      </c>
+      <c r="E14" s="16">
         <v>26043</v>
       </c>
-      <c r="E14" s="13">
+      <c r="F14" s="13">
         <v>3.263832891755942E-3</v>
       </c>
-      <c r="F14" s="17">
+      <c r="G14" s="13">
+        <v>2.1502899051568558E-3</v>
+      </c>
+      <c r="H14" s="16">
         <v>51872</v>
       </c>
-      <c r="G14" s="13">
+      <c r="I14" s="13">
         <v>1.2473010487353485E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="J14" s="13">
+        <v>1.0795805058605799E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="16">
         <v>24440</v>
       </c>
       <c r="C15" s="13">
         <v>3.9689034369885436E-3</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="13">
+        <v>2.2913256955810145E-3</v>
+      </c>
+      <c r="E15" s="16">
         <v>22728</v>
       </c>
-      <c r="E15" s="13">
+      <c r="F15" s="13">
         <v>1.1615628299894404E-2</v>
       </c>
-      <c r="F15" s="17">
+      <c r="G15" s="13">
+        <v>2.4639211545230554E-3</v>
+      </c>
+      <c r="H15" s="16">
         <v>47168</v>
       </c>
-      <c r="G15" s="13">
+      <c r="I15" s="13">
         <v>7.6534938941655358E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="J15" s="13">
+        <v>1.1872455902306649E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="16">
         <v>25378</v>
       </c>
       <c r="C16" s="13">
         <v>2.7937583733942783E-2</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="13">
+        <v>2.2066356686894161E-3</v>
+      </c>
+      <c r="E16" s="16">
         <v>24024</v>
       </c>
-      <c r="E16" s="13">
+      <c r="F16" s="13">
         <v>4.662004662004662E-3</v>
       </c>
-      <c r="F16" s="17">
+      <c r="G16" s="13">
+        <v>2.331002331002331E-3</v>
+      </c>
+      <c r="H16" s="16">
         <v>49402</v>
       </c>
-      <c r="G16" s="13">
+      <c r="I16" s="13">
         <v>1.6618760374073924E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="J16" s="13">
+        <v>1.133557345856443E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="16">
         <v>25925</v>
       </c>
       <c r="C17" s="13">
         <v>7.058823529411765E-3</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="13">
+        <v>2.1600771456123432E-3</v>
+      </c>
+      <c r="E17" s="16">
         <v>23255</v>
       </c>
-      <c r="E17" s="13">
+      <c r="F17" s="13">
         <v>2.0124704364652763E-2</v>
       </c>
-      <c r="F17" s="17">
+      <c r="G17" s="13">
+        <v>2.4080842829499031E-3</v>
+      </c>
+      <c r="H17" s="16">
         <v>49180</v>
       </c>
-      <c r="G17" s="13">
+      <c r="I17" s="13">
         <v>1.3237088247254981E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="17">
+      <c r="J17" s="13">
+        <v>1.1386742578283855E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="16">
         <v>294513</v>
       </c>
       <c r="C18" s="13">
         <v>8.6549659947099105E-3</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="13">
+        <v>1.9014440788691842E-4</v>
+      </c>
+      <c r="E18" s="16">
         <v>282307</v>
       </c>
-      <c r="E18" s="13">
+      <c r="F18" s="13">
         <v>7.3395275356261088E-3</v>
       </c>
-      <c r="F18" s="17">
+      <c r="G18" s="13">
+        <v>1.9836560907097593E-4</v>
+      </c>
+      <c r="H18" s="16">
         <v>576820</v>
       </c>
-      <c r="G18" s="13">
+      <c r="I18" s="13">
         <v>8.0111646614195071E-3</v>
+      </c>
+      <c r="J18" s="13">
+        <v>9.7084012343538715E-5</v>
       </c>
     </row>
   </sheetData>
@@ -1981,19 +2336,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>37</v>
+      <c r="A1" s="17" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>40</v>
+      <c r="A2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -2001,49 +2356,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>43</v>
+      <c r="A5" s="17" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>40</v>
+      <c r="A6" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>45</v>
+      <c r="A9" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
